--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1230B885-055C-4AAC-A44B-6FF6D145F1DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DF30A-2CB5-474C-8091-DD97FDCA01A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2018-07-27 (Bradford_250uL)" sheetId="6" r:id="rId6"/>
     <sheet name="2018-07-27 (Bradford_150uL)" sheetId="7" r:id="rId7"/>
     <sheet name="2018-07-27 (Bradford_150uL_dil)" sheetId="8" r:id="rId8"/>
+    <sheet name="2018-07-30" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t>Sample</t>
   </si>
@@ -116,6 +117,30 @@
   </si>
   <si>
     <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>total_prot_est</t>
   </si>
 </sst>
 </file>
@@ -2055,6 +2080,759 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="435012776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1964999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30'!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5E3-4D13-8C87-5C11CEA14447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403989912"/>
+        <c:axId val="403997456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403989912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403997456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403997456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403989912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30'!$G$8:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30'!$H$8:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70333792298774123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57045803432600062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50247297501069133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252164347531598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19654020809179948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2645252674071088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2645252674071088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15018675855863406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15018675855863406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A541-4150-A784-4C2EB974D094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489364552"/>
+        <c:axId val="489367504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489364552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489367504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489367504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489364552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4817,6 +5595,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6170,6 +7028,1038 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11357,6 +13247,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48BB600-82E3-4FAD-AB69-731C1BD6B2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6D37C0-6DFC-4E23-A022-62E930553A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14182,7 +16149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D6461D-00D9-4E7B-A680-94ED89E058B0}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -14834,4 +16801,963 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF74E3D-8387-4269-A672-2E8060E4B781}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$7</f>
+        <v>0.31950000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">AVERAGE(B3:C3)</f>
+        <v>0.7004999999999999</v>
+      </c>
+      <c r="E3">
+        <f>D3-$D$7</f>
+        <v>0.3214999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.626</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.67599999999999993</v>
+      </c>
+      <c r="E4">
+        <f>D4-$D$7</f>
+        <v>0.29699999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.5754999999999999</v>
+      </c>
+      <c r="E5">
+        <f>D5-$D$7</f>
+        <v>0.1964999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.497</v>
+      </c>
+      <c r="C6">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E6">
+        <f>D6-$D$7</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.379</v>
+      </c>
+      <c r="E7">
+        <f>D7-$D$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E8">
+        <f>D8-$D$7</f>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="F8">
+        <f>(1.2501*E8) - 0.004</f>
+        <v>0.20226650000000004</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>F8/$F$8</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>F8*490</f>
+        <v>99.110585000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D14" si="1">AVERAGE(B10:C10)</f>
+        <v>0.496</v>
+      </c>
+      <c r="E9">
+        <f>D9-$D$7</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F37" si="2">(1.2501*E9) - 0.004</f>
+        <v>0.14226169999999999</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <f>F9/$F$8</f>
+        <v>0.70333792298774123</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I17" si="3">F9*490</f>
+        <v>69.708232999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.504</v>
+      </c>
+      <c r="C10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.47450000000000003</v>
+      </c>
+      <c r="E10">
+        <f>D10-$D$7</f>
+        <v>9.5500000000000029E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.11538455000000003</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <f>F10/$F$8</f>
+        <v>0.57045803432600062</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>56.538429500000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="E11">
+        <f>D11-$D$7</f>
+        <v>8.450000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.10163345000000001</v>
+      </c>
+      <c r="G11">
+        <v>35.9</v>
+      </c>
+      <c r="H11">
+        <f>F11/$F$8</f>
+        <v>0.50247297501069133</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>49.800390500000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E12">
+        <f>D12-$D$7</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>5.1004399999999978E-2</v>
+      </c>
+      <c r="G12">
+        <v>39.4</v>
+      </c>
+      <c r="H12">
+        <f>F12/$F$8</f>
+        <v>0.252164347531598</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>24.992155999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.42</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E13">
+        <f>D13-$D$7</f>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.9753499999999969E-2</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <f>F13/$F$8</f>
+        <v>0.19654020809179948</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>19.479214999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.41</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E14">
+        <f>D14-$D$7</f>
+        <v>4.5999999999999985E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.3504599999999986E-2</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f>F14/$F$8</f>
+        <v>0.2645252674071088</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>26.217253999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.43</v>
+      </c>
+      <c r="C15">
+        <v>0.42</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B15:C15)</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E15">
+        <f>D15-$D$7</f>
+        <v>4.5999999999999985E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>5.3504599999999986E-2</v>
+      </c>
+      <c r="G15">
+        <v>54.5</v>
+      </c>
+      <c r="H15">
+        <f>F15/$F$8</f>
+        <v>0.2645252674071088</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>26.217253999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="E16">
+        <f>D16-$D$7</f>
+        <v>2.7499999999999969E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>3.0377749999999964E-2</v>
+      </c>
+      <c r="G16">
+        <v>62.5</v>
+      </c>
+      <c r="H16">
+        <f>F16/$F$8</f>
+        <v>0.15018675855863406</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>14.885097499999983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="E17">
+        <f>D17-$D$7</f>
+        <v>2.7499999999999969E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>3.0377749999999964E-2</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <f>F17/$F$8</f>
+        <v>0.15018675855863406</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>14.885097499999983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E18">
+        <f>B18-$D$7</f>
+        <v>0.10899999999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.13226089999999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>F18*100</f>
+        <v>13.226089999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E27" si="4">B19-$D$7</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.171014</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I27" si="5">F19*100</f>
+        <v>17.101399999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999972E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.11225929999999996</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>11.225929999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.17601440000000002</v>
+      </c>
+      <c r="G21">
+        <v>35.9</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>17.60144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>0.121</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.14726209999999998</v>
+      </c>
+      <c r="G22">
+        <v>39.4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>14.726209999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>0.121</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.14726209999999998</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>14.726209999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.12100999999999998</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <f>F24*100</f>
+        <v>12.100999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.18101480000000003</v>
+      </c>
+      <c r="G25">
+        <v>54.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>18.101480000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>0.51</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.15976309999999999</v>
+      </c>
+      <c r="G26">
+        <v>62.5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>15.97631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.18101480000000003</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>18.101480000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E28">
+        <f>B28-$D$7</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.3372773</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>F28*100</f>
+        <v>33.727730000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E37" si="6">B29-$D$7</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.12100999999999998</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I33" si="7">F29*100</f>
+        <v>12.100999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>5.2254499999999982E-2</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>5.2254499999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.441</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>7.3506199999999994E-2</v>
+      </c>
+      <c r="G31">
+        <v>35.9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>7.3506199999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>9.4999999999999973E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.11475949999999996</v>
+      </c>
+      <c r="G32">
+        <v>39.4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>11.475949999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>8.3000000000000018E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>9.9758300000000022E-2</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>9.975830000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999991E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>6.1005199999999982E-2</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <f>F34*100</f>
+        <v>6.1005199999999977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.439</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>7.1006E-2</v>
+      </c>
+      <c r="G35">
+        <v>54.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I37" si="8">F35*100</f>
+        <v>7.1006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>8.2256900000000008E-2</v>
+      </c>
+      <c r="G36">
+        <v>62.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>8.2256900000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.27102199999999999</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>27.1022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DF30A-2CB5-474C-8091-DD97FDCA01A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB3087-B375-42ED-9D40-021BF6FC3AEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2018-07-27 (Bradford_150uL)" sheetId="7" r:id="rId7"/>
     <sheet name="2018-07-27 (Bradford_150uL_dil)" sheetId="8" r:id="rId8"/>
     <sheet name="2018-07-30" sheetId="9" r:id="rId9"/>
+    <sheet name="2018-07-30_Bradford_vs_BCA" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
   <si>
     <t>Sample</t>
   </si>
@@ -142,12 +143,18 @@
   <si>
     <t>total_prot_est</t>
   </si>
+  <si>
+    <t>BRADFORD</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +174,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,9 +221,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2888,6 +2904,1152 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bradford</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Standard</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33349999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28BE-447A-B08A-072BF48D2DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421311096"/>
+        <c:axId val="421311752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421311096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421311752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="421311752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421311096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bradford Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$G$8:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$H$8:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0199673302553165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0177487380047257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81807543545156303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56737451113481396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43647756834996232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43647756834996232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31223640231688327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30336203331452044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB9C-4868-A9D6-70D0AC14C617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432468576"/>
+        <c:axId val="432469232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432468576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432469232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432469232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432468576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BCA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Standard</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$E$21:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F576-41B4-9002-44F1BB007EFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508451416"/>
+        <c:axId val="508449776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508451416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508449776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508449776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508451416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3083,6 +4245,362 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BCA Unfolding Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.297361267341582E-2"/>
+          <c:y val="0.19219178082191782"/>
+          <c:w val="0.87559781589801278"/>
+          <c:h val="0.72471110631718982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-30_Bradford_vs_BCA'!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83570291330064395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8236811752494716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86776088143710384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69344567969510373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61129713634542593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60528626731983981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60528626731983981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53515946202133391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54317395405544888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F48F-4DC0-A693-47E00A626713}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508439608"/>
+        <c:axId val="508446824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508439608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508446824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508446824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508439608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5675,6 +7193,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8575,6 +10253,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12736,6 +16478,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B395988-A19E-4C78-94DC-A4B5CDF1F264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C61326F-391B-46C2-BF4D-E131D7DD500F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAA836A-7FF4-4CB9-B291-310812025D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013E2C97-84BE-4673-8C03-4D4D21E47C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13649,7 +17540,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13883,6 +17774,923 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F9132-F282-47DF-B20B-4B7988AF257A}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(B3:C3)</f>
+        <v>0.74049999999999994</v>
+      </c>
+      <c r="E3">
+        <f>D3-$D$7</f>
+        <v>0.33349999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D17" si="0">AVERAGE(B5:C5)</f>
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E5">
+        <f>D5-$D$7</f>
+        <v>0.23399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="E6">
+        <f>D6-$D$7</f>
+        <v>0.16149999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="E7">
+        <f>D7-$D$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="E8">
+        <f>D8-$D$7</f>
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="F8">
+        <f>(1.3385*E8) - 0.0149</f>
+        <v>0.37393424999999997</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>F8/$F$8</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>F8*490</f>
+        <v>183.22778249999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D14" si="1">AVERAGE(B10:C10)</f>
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="E9">
+        <f>D9-$D$7</f>
+        <v>0.23649999999999993</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F17" si="2">(1.3385*E9) - 0.0149</f>
+        <v>0.30165524999999987</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <f>F9/$F$9</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I17" si="3">F9*490</f>
+        <v>147.81107249999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E10">
+        <f>D10-$D$7</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.30767849999999997</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <f>F10/$F$9</f>
+        <v>1.0199673302553165</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>150.76246499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="E11">
+        <f>D11-$D$7</f>
+        <v>0.24049999999999994</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.3070092499999999</v>
+      </c>
+      <c r="G11">
+        <v>35.9</v>
+      </c>
+      <c r="H11">
+        <f>F11/$F$9</f>
+        <v>1.0177487380047257</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>150.43453249999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="E12">
+        <f>D12-$D$7</f>
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.24677675000000002</v>
+      </c>
+      <c r="G12">
+        <v>39.4</v>
+      </c>
+      <c r="H12">
+        <f>F12/$F$9</f>
+        <v>0.81807543545156303</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>120.9206075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E13">
+        <f>D13-$D$7</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.17115150000000001</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <f>F13/$F$9</f>
+        <v>0.56737451113481396</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>83.864235000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="E14">
+        <f>D14-$D$7</f>
+        <v>0.10949999999999993</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.13166574999999991</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f>F14/$F$9</f>
+        <v>0.43647756834996232</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>64.516217499999954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B15:C15)</f>
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="E15">
+        <f>D15-$D$7</f>
+        <v>0.10949999999999993</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.13166574999999991</v>
+      </c>
+      <c r="G15">
+        <v>54.5</v>
+      </c>
+      <c r="H15">
+        <f>F15/$F$9</f>
+        <v>0.43647756834996232</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>64.516217499999954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.48</v>
+      </c>
+      <c r="C16">
+        <v>0.497</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="E16">
+        <f>D16-$D$7</f>
+        <v>8.1499999999999961E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>9.4187749999999959E-2</v>
+      </c>
+      <c r="G16">
+        <v>62.5</v>
+      </c>
+      <c r="H16">
+        <f>F16/$F$9</f>
+        <v>0.31223640231688327</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>46.151997499999979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.48</v>
+      </c>
+      <c r="C17">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="E17">
+        <f>D17-$D$7</f>
+        <v>7.949999999999996E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>9.1510749999999946E-2</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <f>F17/$F$9</f>
+        <v>0.30336203331452044</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>44.840267499999975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.25</v>
+      </c>
+      <c r="B21">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B21:C21)</f>
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="E21">
+        <f>D21-$D$24</f>
+        <v>0.28700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.15</v>
+      </c>
+      <c r="B22">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.315</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D25" si="4">AVERAGE(B22:C22)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E22">
+        <f>D22-$D$24</f>
+        <v>0.15650000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="5">D23-$D$24</f>
+        <v>0.10100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.17</v>
+      </c>
+      <c r="C24">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.17149999999999999</v>
+      </c>
+      <c r="E24">
+        <f>D24-$D$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.432</v>
+      </c>
+      <c r="C25">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E25">
+        <f>D25-$D$24</f>
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="F25">
+        <f>(0.8677*E25) - 0.0069</f>
+        <v>0.21653275000000002</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>F25/$F$25</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>F25*490</f>
+        <v>106.10104750000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D31" si="6">AVERAGE(B27:C27)</f>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E26">
+        <f>D26-$D$24</f>
+        <v>0.21650000000000003</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F34" si="7">(0.8677*E26) - 0.0069</f>
+        <v>0.18095705000000004</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H34" si="8">F26/$F$25</f>
+        <v>0.83570291330064395</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I34" si="9">F26*490</f>
+        <v>88.668954500000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B28:C28)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E27">
+        <f>D27-$D$24</f>
+        <v>0.21350000000000002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>0.17835395000000004</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>0.8236811752494716</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>87.393435500000024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E28">
+        <f>D28-$D$24</f>
+        <v>0.22450000000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>0.18789865000000006</v>
+      </c>
+      <c r="G28">
+        <v>35.9</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>0.86776088143710384</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>92.070338500000034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="E29">
+        <f>D29-$D$24</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>0.1501537</v>
+      </c>
+      <c r="G29">
+        <v>39.4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0.69344567969510373</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>73.575312999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C30">
+        <v>0.36</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E30">
+        <f>D30-$D$24</f>
+        <v>0.16050000000000003</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>0.13236585000000003</v>
+      </c>
+      <c r="G30">
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>0.61129713634542593</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>64.859266500000018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B32:C32)</f>
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="E31">
+        <f>D31-$D$24</f>
+        <v>0.15900000000000003</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>0.13106430000000005</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>0.60528626731983981</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>64.221507000000031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B32:C32)</f>
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="E32">
+        <f>D32-$D$24</f>
+        <v>0.15900000000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>0.13106430000000005</v>
+      </c>
+      <c r="G32">
+        <v>54.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>0.60528626731983981</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>64.221507000000031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>0.313</v>
+      </c>
+      <c r="C33">
+        <v>0.313</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D34" si="10">AVERAGE(B33:C33)</f>
+        <v>0.313</v>
+      </c>
+      <c r="E33">
+        <f>D33-$D$24</f>
+        <v>0.14150000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>0.11587955000000001</v>
+      </c>
+      <c r="G33">
+        <v>62.5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>0.53515946202133391</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>56.780979500000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>0.314</v>
+      </c>
+      <c r="C34">
+        <v>0.316</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B34:C34)</f>
+        <v>0.315</v>
+      </c>
+      <c r="E34">
+        <f>D34-$D$24</f>
+        <v>0.14350000000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>0.11761495000000001</v>
+      </c>
+      <c r="G34">
+        <v>70</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>0.54317395405544888</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="9"/>
+        <v>57.631325500000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16807,8 +21615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF74E3D-8387-4269-A672-2E8060E4B781}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16857,7 +21665,7 @@
         <v>0.69850000000000001</v>
       </c>
       <c r="E2">
-        <f>D2-$D$7</f>
+        <f t="shared" ref="E2:E17" si="0">D2-$D$7</f>
         <v>0.31950000000000001</v>
       </c>
     </row>
@@ -16872,11 +21680,11 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">AVERAGE(B3:C3)</f>
+        <f t="shared" ref="D3:D17" si="1">AVERAGE(B3:C3)</f>
         <v>0.7004999999999999</v>
       </c>
       <c r="E3">
-        <f>D3-$D$7</f>
+        <f t="shared" si="0"/>
         <v>0.3214999999999999</v>
       </c>
     </row>
@@ -16891,11 +21699,11 @@
         <v>0.626</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.67599999999999993</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.67599999999999993</v>
-      </c>
-      <c r="E4">
-        <f>D4-$D$7</f>
         <v>0.29699999999999993</v>
       </c>
     </row>
@@ -16910,11 +21718,11 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.5754999999999999</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.5754999999999999</v>
-      </c>
-      <c r="E5">
-        <f>D5-$D$7</f>
         <v>0.1964999999999999</v>
       </c>
     </row>
@@ -16929,11 +21737,11 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="E6">
-        <f>D6-$D$7</f>
         <v>0.13300000000000001</v>
       </c>
     </row>
@@ -16948,11 +21756,11 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.379</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.379</v>
-      </c>
-      <c r="E7">
-        <f>D7-$D$7</f>
         <v>0</v>
       </c>
     </row>
@@ -16967,11 +21775,11 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E8">
-        <f>D8-$D$7</f>
         <v>0.16500000000000004</v>
       </c>
       <c r="F8">
@@ -16982,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>F8/$F$8</f>
+        <f t="shared" ref="H8:H17" si="2">F8/$F$8</f>
         <v>1</v>
       </c>
       <c r="I8">
@@ -17001,7 +21809,7 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D14" si="1">AVERAGE(B10:C10)</f>
+        <f t="shared" ref="D9:D14" si="3">AVERAGE(B10:C10)</f>
         <v>0.496</v>
       </c>
       <c r="E9">
@@ -17009,18 +21817,18 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F37" si="2">(1.2501*E9) - 0.004</f>
+        <f t="shared" ref="F9:F37" si="4">(1.2501*E9) - 0.004</f>
         <v>0.14226169999999999</v>
       </c>
       <c r="G9">
         <v>25</v>
       </c>
       <c r="H9">
-        <f>F9/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.70333792298774123</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I17" si="3">F9*490</f>
+        <f t="shared" ref="I9:I17" si="5">F9*490</f>
         <v>69.708232999999993</v>
       </c>
     </row>
@@ -17035,26 +21843,26 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.47450000000000003</v>
       </c>
       <c r="E10">
-        <f>D10-$D$7</f>
+        <f t="shared" si="0"/>
         <v>9.5500000000000029E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f>(1.2501*E10) - 0.004</f>
         <v>0.11538455000000003</v>
       </c>
       <c r="G10">
         <v>30</v>
       </c>
       <c r="H10">
-        <f>F10/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.57045803432600062</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.538429500000014</v>
       </c>
     </row>
@@ -17069,26 +21877,26 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46350000000000002</v>
       </c>
       <c r="E11">
-        <f>D11-$D$7</f>
+        <f t="shared" si="0"/>
         <v>8.450000000000002E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10163345000000001</v>
       </c>
       <c r="G11">
         <v>35.9</v>
       </c>
       <c r="H11">
-        <f>F11/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.50247297501069133</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49.800390500000006</v>
       </c>
     </row>
@@ -17103,26 +21911,26 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="E12">
-        <f>D12-$D$7</f>
+        <f t="shared" si="0"/>
         <v>4.3999999999999984E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1004399999999978E-2</v>
       </c>
       <c r="G12">
         <v>39.4</v>
       </c>
       <c r="H12">
-        <f>F12/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.252164347531598</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.992155999999991</v>
       </c>
     </row>
@@ -17137,26 +21945,26 @@
         <v>0.42</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41399999999999998</v>
       </c>
       <c r="E13">
-        <f>D13-$D$7</f>
+        <f t="shared" si="0"/>
         <v>3.4999999999999976E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9753499999999969E-2</v>
       </c>
       <c r="G13">
         <v>45</v>
       </c>
       <c r="H13">
-        <f>F13/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.19654020809179948</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.479214999999986</v>
       </c>
     </row>
@@ -17171,26 +21979,26 @@
         <v>0.41</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="E14">
-        <f>D14-$D$7</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999985E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3504599999999986E-2</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <f>F14/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.2645252674071088</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.217253999999993</v>
       </c>
     </row>
@@ -17209,22 +22017,22 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="E15">
-        <f>D15-$D$7</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999985E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3504599999999986E-2</v>
       </c>
       <c r="G15">
         <v>54.5</v>
       </c>
       <c r="H15">
-        <f>F15/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.2645252674071088</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.217253999999993</v>
       </c>
     </row>
@@ -17239,26 +22047,26 @@
         <v>0.4</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.40649999999999997</v>
-      </c>
-      <c r="E16">
-        <f>D16-$D$7</f>
         <v>2.7499999999999969E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0377749999999964E-2</v>
       </c>
       <c r="G16">
         <v>62.5</v>
       </c>
       <c r="H16">
-        <f>F16/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.15018675855863406</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.885097499999983</v>
       </c>
     </row>
@@ -17273,26 +22081,26 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.40649999999999997</v>
-      </c>
-      <c r="E17">
-        <f>D17-$D$7</f>
         <v>2.7499999999999969E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0377749999999964E-2</v>
       </c>
       <c r="G17">
         <v>70</v>
       </c>
       <c r="H17">
-        <f>F17/$F$8</f>
+        <f t="shared" si="2"/>
         <v>0.15018675855863406</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.885097499999983</v>
       </c>
     </row>
@@ -17308,7 +22116,7 @@
         <v>0.10899999999999999</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13226089999999999</v>
       </c>
       <c r="G18">
@@ -17327,18 +22135,18 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E27" si="4">B19-$D$7</f>
+        <f t="shared" ref="E19:E27" si="6">B19-$D$7</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.171014</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I27" si="5">F19*100</f>
+        <f t="shared" ref="I19:I27" si="7">F19*100</f>
         <v>17.101399999999998</v>
       </c>
     </row>
@@ -17350,18 +22158,18 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="E20">
+        <f t="shared" si="6"/>
+        <v>9.2999999999999972E-2</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="4"/>
-        <v>9.2999999999999972E-2</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
         <v>0.11225929999999996</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.225929999999996</v>
       </c>
     </row>
@@ -17373,18 +22181,18 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="E21">
+        <f t="shared" si="6"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="4"/>
-        <v>0.14400000000000002</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
         <v>0.17601440000000002</v>
       </c>
       <c r="G21">
         <v>35.9</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.60144</v>
       </c>
     </row>
@@ -17396,18 +22204,18 @@
         <v>0.5</v>
       </c>
       <c r="E22">
+        <f t="shared" si="6"/>
+        <v>0.121</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="4"/>
-        <v>0.121</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
         <v>0.14726209999999998</v>
       </c>
       <c r="G22">
         <v>39.4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.726209999999998</v>
       </c>
     </row>
@@ -17419,18 +22227,18 @@
         <v>0.5</v>
       </c>
       <c r="E23">
+        <f t="shared" si="6"/>
+        <v>0.121</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
-        <v>0.121</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
         <v>0.14726209999999998</v>
       </c>
       <c r="G23">
         <v>45</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.726209999999998</v>
       </c>
     </row>
@@ -17442,11 +22250,11 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="E24">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
         <v>0.12100999999999998</v>
       </c>
       <c r="G24">
@@ -17465,18 +22273,18 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="E25">
+        <f t="shared" si="6"/>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.14800000000000002</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
         <v>0.18101480000000003</v>
       </c>
       <c r="G25">
         <v>54.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.101480000000002</v>
       </c>
     </row>
@@ -17488,18 +22296,18 @@
         <v>0.51</v>
       </c>
       <c r="E26">
+        <f t="shared" si="6"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="4"/>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
         <v>0.15976309999999999</v>
       </c>
       <c r="G26">
         <v>62.5</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.97631</v>
       </c>
     </row>
@@ -17511,18 +22319,18 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="E27">
+        <f t="shared" si="6"/>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>0.14800000000000002</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
         <v>0.18101480000000003</v>
       </c>
       <c r="G27">
         <v>70</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.101480000000002</v>
       </c>
     </row>
@@ -17538,7 +22346,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3372773</v>
       </c>
       <c r="G28">
@@ -17557,18 +22365,18 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E37" si="6">B29-$D$7</f>
+        <f t="shared" ref="E29:E37" si="8">B29-$D$7</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12100999999999998</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I33" si="7">F29*100</f>
+        <f t="shared" ref="I29:I33" si="9">F29*100</f>
         <v>12.100999999999997</v>
       </c>
     </row>
@@ -17580,18 +22388,18 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4999999999999984E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2254499999999982E-2</v>
       </c>
       <c r="G30">
         <v>30</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.2254499999999986</v>
       </c>
     </row>
@@ -17603,18 +22411,18 @@
         <v>0.441</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.3506199999999994E-2</v>
       </c>
       <c r="G31">
         <v>35.9</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3506199999999993</v>
       </c>
     </row>
@@ -17626,18 +22434,18 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4999999999999973E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11475949999999996</v>
       </c>
       <c r="G32">
         <v>39.4</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.475949999999996</v>
       </c>
     </row>
@@ -17649,18 +22457,18 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.9758300000000022E-2</v>
       </c>
       <c r="G33">
         <v>45</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.975830000000002</v>
       </c>
     </row>
@@ -17672,11 +22480,11 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.1999999999999991E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1005199999999982E-2</v>
       </c>
       <c r="G34">
@@ -17695,18 +22503,18 @@
         <v>0.439</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.06</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1006E-2</v>
       </c>
       <c r="G35">
         <v>54.5</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I37" si="8">F35*100</f>
+        <f t="shared" ref="I35:I37" si="10">F35*100</f>
         <v>7.1006</v>
       </c>
     </row>
@@ -17718,18 +22526,18 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2256900000000008E-2</v>
       </c>
       <c r="G36">
         <v>62.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.2256900000000002</v>
       </c>
     </row>
@@ -17741,18 +22549,18 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27102199999999999</v>
       </c>
       <c r="G37">
         <v>70</v>
       </c>
       <c r="I37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27.1022</v>
       </c>
     </row>

--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB3087-B375-42ED-9D40-021BF6FC3AEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A020EF3-56C7-4FEC-8421-196FA5FC0B18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4509,7 +4509,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
-          <c:min val="0"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17781,8 +17781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F9132-F282-47DF-B20B-4B7988AF257A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17858,7 +17858,7 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="E5">
-        <f>D5-$D$7</f>
+        <f t="shared" ref="E5:E17" si="1">D5-$D$7</f>
         <v>0.23399999999999999</v>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
         <v>0.56850000000000001</v>
       </c>
       <c r="E6">
-        <f>D6-$D$7</f>
+        <f t="shared" si="1"/>
         <v>0.16149999999999998</v>
       </c>
     </row>
@@ -17896,7 +17896,7 @@
         <v>0.40700000000000003</v>
       </c>
       <c r="E7">
-        <f>D7-$D$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17915,7 +17915,7 @@
         <v>0.69750000000000001</v>
       </c>
       <c r="E8">
-        <f>D8-$D$7</f>
+        <f t="shared" si="1"/>
         <v>0.29049999999999998</v>
       </c>
       <c r="F8">
@@ -17945,26 +17945,26 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D14" si="1">AVERAGE(B10:C10)</f>
+        <f t="shared" ref="D9:D14" si="2">AVERAGE(B10:C10)</f>
         <v>0.64349999999999996</v>
       </c>
       <c r="E9">
-        <f>D9-$D$7</f>
+        <f t="shared" si="1"/>
         <v>0.23649999999999993</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F17" si="2">(1.3385*E9) - 0.0149</f>
+        <f t="shared" ref="F9:F17" si="3">(1.3385*E9) - 0.0149</f>
         <v>0.30165524999999987</v>
       </c>
       <c r="G9">
         <v>25</v>
       </c>
       <c r="H9">
-        <f>F9/$F$9</f>
+        <f t="shared" ref="H9:H17" si="4">F9/$F$9</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I17" si="3">F9*490</f>
+        <f t="shared" ref="I9:I17" si="5">F9*490</f>
         <v>147.81107249999994</v>
       </c>
     </row>
@@ -17979,26 +17979,26 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E10">
-        <f>D10-$D$7</f>
         <v>0.24099999999999999</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30767849999999997</v>
       </c>
       <c r="G10">
         <v>30</v>
       </c>
       <c r="H10">
-        <f>F10/$F$9</f>
+        <f t="shared" si="4"/>
         <v>1.0199673302553165</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150.76246499999999</v>
       </c>
     </row>
@@ -18010,26 +18010,26 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="E11">
-        <f>D11-$D$7</f>
         <v>0.24049999999999994</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3070092499999999</v>
       </c>
       <c r="G11">
         <v>35.9</v>
       </c>
       <c r="H11">
-        <f>F11/$F$9</f>
+        <f t="shared" si="4"/>
         <v>1.0177487380047257</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150.43453249999996</v>
       </c>
     </row>
@@ -18044,26 +18044,26 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="E12">
-        <f>D12-$D$7</f>
         <v>0.19550000000000001</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24677675000000002</v>
       </c>
       <c r="G12">
         <v>39.4</v>
       </c>
       <c r="H12">
-        <f>F12/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.81807543545156303</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120.9206075</v>
       </c>
     </row>
@@ -18078,26 +18078,26 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E13">
-        <f>D13-$D$7</f>
         <v>0.13900000000000001</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17115150000000001</v>
       </c>
       <c r="G13">
         <v>45</v>
       </c>
       <c r="H13">
-        <f>F13/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.56737451113481396</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83.864235000000008</v>
       </c>
     </row>
@@ -18112,26 +18112,26 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.51649999999999996</v>
-      </c>
-      <c r="E14">
-        <f>D14-$D$7</f>
         <v>0.10949999999999993</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13166574999999991</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <f>F14/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.43647756834996232</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64.516217499999954</v>
       </c>
     </row>
@@ -18150,22 +18150,22 @@
         <v>0.51649999999999996</v>
       </c>
       <c r="E15">
-        <f>D15-$D$7</f>
+        <f t="shared" si="1"/>
         <v>0.10949999999999993</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13166574999999991</v>
       </c>
       <c r="G15">
         <v>54.5</v>
       </c>
       <c r="H15">
-        <f>F15/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.43647756834996232</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64.516217499999954</v>
       </c>
     </row>
@@ -18184,22 +18184,22 @@
         <v>0.48849999999999999</v>
       </c>
       <c r="E16">
-        <f>D16-$D$7</f>
+        <f t="shared" si="1"/>
         <v>8.1499999999999961E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4187749999999959E-2</v>
       </c>
       <c r="G16">
         <v>62.5</v>
       </c>
       <c r="H16">
-        <f>F16/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.31223640231688327</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46.151997499999979</v>
       </c>
     </row>
@@ -18218,22 +18218,22 @@
         <v>0.48649999999999999</v>
       </c>
       <c r="E17">
-        <f>D17-$D$7</f>
+        <f t="shared" si="1"/>
         <v>7.949999999999996E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1510749999999946E-2</v>
       </c>
       <c r="G17">
         <v>70</v>
       </c>
       <c r="H17">
-        <f>F17/$F$9</f>
+        <f t="shared" si="4"/>
         <v>0.30336203331452044</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.840267499999975</v>
       </c>
     </row>
@@ -18301,7 +18301,7 @@
         <v>0.315</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D25" si="4">AVERAGE(B22:C22)</f>
+        <f t="shared" ref="D22:D25" si="6">AVERAGE(B22:C22)</f>
         <v>0.32800000000000001</v>
       </c>
       <c r="E22">
@@ -18320,11 +18320,11 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.27250000000000002</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="5">D23-$D$24</f>
+        <f t="shared" ref="E23" si="7">D23-$D$24</f>
         <v>0.10100000000000003</v>
       </c>
     </row>
@@ -18339,11 +18339,11 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17149999999999999</v>
       </c>
       <c r="E24">
-        <f>D24-$D$24</f>
+        <f t="shared" ref="E24:E34" si="8">D24-$D$24</f>
         <v>0</v>
       </c>
     </row>
@@ -18358,11 +18358,11 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42899999999999999</v>
       </c>
       <c r="E25">
-        <f>D25-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.25750000000000001</v>
       </c>
       <c r="F25">
@@ -18392,26 +18392,26 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D31" si="6">AVERAGE(B27:C27)</f>
+        <f t="shared" ref="D26:D30" si="9">AVERAGE(B27:C27)</f>
         <v>0.38800000000000001</v>
       </c>
       <c r="E26">
-        <f>D26-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.21650000000000003</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F34" si="7">(0.8677*E26) - 0.0069</f>
+        <f t="shared" ref="F26:F34" si="10">(0.8677*E26) - 0.0069</f>
         <v>0.18095705000000004</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H34" si="8">F26/$F$25</f>
+        <f t="shared" ref="H26:H34" si="11">F26/$F$25</f>
         <v>0.83570291330064395</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I34" si="9">F26*490</f>
+        <f t="shared" ref="I26:I34" si="12">F26*490</f>
         <v>88.668954500000012</v>
       </c>
     </row>
@@ -18430,22 +18430,22 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="E27">
-        <f>D27-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.21350000000000002</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17835395000000004</v>
       </c>
       <c r="G27">
         <v>30</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.8236811752494716</v>
       </c>
       <c r="I27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>87.393435500000024</v>
       </c>
     </row>
@@ -18460,26 +18460,26 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.39600000000000002</v>
       </c>
       <c r="E28">
-        <f>D28-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.22450000000000003</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.18789865000000006</v>
       </c>
       <c r="G28">
         <v>35.9</v>
       </c>
       <c r="H28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86776088143710384</v>
       </c>
       <c r="I28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92.070338500000034</v>
       </c>
     </row>
@@ -18494,26 +18494,26 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.35249999999999998</v>
       </c>
       <c r="E29">
-        <f>D29-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.18099999999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1501537</v>
       </c>
       <c r="G29">
         <v>39.4</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.69344567969510373</v>
       </c>
       <c r="I29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>73.575312999999994</v>
       </c>
     </row>
@@ -18528,26 +18528,26 @@
         <v>0.36</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.33200000000000002</v>
       </c>
       <c r="E30">
-        <f>D30-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.16050000000000003</v>
       </c>
       <c r="F30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13236585000000003</v>
       </c>
       <c r="G30">
         <v>45</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61129713634542593</v>
       </c>
       <c r="I30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>64.859266500000018</v>
       </c>
     </row>
@@ -18566,22 +18566,22 @@
         <v>0.33050000000000002</v>
       </c>
       <c r="E31">
-        <f>D31-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.15900000000000003</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13106430000000005</v>
       </c>
       <c r="G31">
         <v>50</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.60528626731983981</v>
       </c>
       <c r="I31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>64.221507000000031</v>
       </c>
     </row>
@@ -18600,22 +18600,22 @@
         <v>0.33050000000000002</v>
       </c>
       <c r="E32">
-        <f>D32-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.15900000000000003</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13106430000000005</v>
       </c>
       <c r="G32">
         <v>54.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.60528626731983981</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>64.221507000000031</v>
       </c>
     </row>
@@ -18630,26 +18630,26 @@
         <v>0.313</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="10">AVERAGE(B33:C33)</f>
+        <f t="shared" ref="D33" si="13">AVERAGE(B33:C33)</f>
         <v>0.313</v>
       </c>
       <c r="E33">
-        <f>D33-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.14150000000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11587955000000001</v>
       </c>
       <c r="G33">
         <v>62.5</v>
       </c>
       <c r="H33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.53515946202133391</v>
       </c>
       <c r="I33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>56.780979500000008</v>
       </c>
     </row>
@@ -18668,22 +18668,22 @@
         <v>0.315</v>
       </c>
       <c r="E34">
-        <f>D34-$D$24</f>
+        <f t="shared" si="8"/>
         <v>0.14350000000000002</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11761495000000001</v>
       </c>
       <c r="G34">
         <v>70</v>
       </c>
       <c r="H34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.54317395405544888</v>
       </c>
       <c r="I34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>57.631325500000003</v>
       </c>
     </row>

--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A020EF3-56C7-4FEC-8421-196FA5FC0B18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A919574-4EA8-4E26-99C2-75397A54F0F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2018-07-27 (Bradford_150uL_dil)" sheetId="8" r:id="rId8"/>
     <sheet name="2018-07-30" sheetId="9" r:id="rId9"/>
     <sheet name="2018-07-30_Bradford_vs_BCA" sheetId="10" r:id="rId10"/>
+    <sheet name="2018-07-31_linediff(NB#4pg81-83" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
   <si>
     <t>Sample</t>
   </si>
@@ -149,12 +150,81 @@
   <si>
     <t>BCA</t>
   </si>
+  <si>
+    <t>AB8</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>SAMP</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>1.R1 (bef. Heat)</t>
+  </si>
+  <si>
+    <t>1.R2 (bef. Heat)</t>
+  </si>
+  <si>
+    <t>2.R1 (bef. UC)</t>
+  </si>
+  <si>
+    <t>2.R2 (bef. UC)</t>
+  </si>
+  <si>
+    <t>AVG 1</t>
+  </si>
+  <si>
+    <t>AVG 2</t>
+  </si>
+  <si>
+    <t>3.R1 (af. UC)</t>
+  </si>
+  <si>
+    <t>3.R2 (af. UC)</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>AVG 3</t>
+  </si>
+  <si>
+    <t>Rel. Diff.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,8 +256,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +284,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,8 +303,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,13 +323,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
+    <cellStyle name="Bad" xfId="9" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -235,6 +351,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4551,6 +4668,750 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="508439608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3890952044674357E-2"/>
+                  <c:y val="-1.2901234567901234E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F139-4B03-A9D0-98C66A8978E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420762072"/>
+        <c:axId val="420766664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420762072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420766664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420766664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420762072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17549999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED9B-469F-8B00-6014F8A634CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420773224"/>
+        <c:axId val="420774864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420773224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420774864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420774864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420773224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7353,6 +8214,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12317,6 +13258,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -16627,6 +18600,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30B1320-DC9A-4949-B55B-6675AAD21B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDF09C3-E960-45B9-B7C6-84EB3C18E8D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17781,7 +19831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F9132-F282-47DF-B20B-4B7988AF257A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
@@ -18690,6 +20740,985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418CE3A4-F8B9-4598-804D-EB101870D262}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>0.33749999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">AVERAGE(B3:C3)</f>
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3-$D$6</f>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.64</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.25400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.36</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E7">
+        <f>D7-$D$11</f>
+        <v>0.35800000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>0.751</v>
+      </c>
+      <c r="C8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.80299999999999994</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E11" si="2">D8-$D$11</f>
+        <v>0.34899999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="B9">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.33249999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <v>0.629</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.17549999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>1.167</v>
+      </c>
+      <c r="C13">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B13:C13)</f>
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="E13">
+        <f>D13-$D$6</f>
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(0.6702*E13) +0.0016</f>
+        <v>0.56892430000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(G13:H13)</f>
+        <v>0.627</v>
+      </c>
+      <c r="J13">
+        <f>I13-$D$11</f>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K13" s="8">
+        <f>(2.1507*J13)-0.0099</f>
+        <v>0.36217109999999997</v>
+      </c>
+      <c r="L13">
+        <v>0.82</v>
+      </c>
+      <c r="M13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(L13:M13)</f>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="O13">
+        <f>N13-$D$11</f>
+        <v>0.25699999999999995</v>
+      </c>
+      <c r="P13" s="4">
+        <f>(2.1507*O13) - 0.0099</f>
+        <v>0.54282989999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>1.069</v>
+      </c>
+      <c r="C14">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D22" si="3">AVERAGE(B14:C14)</f>
+        <v>1.0619999999999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E22" si="4">D14-$D$6</f>
+        <v>0.70149999999999979</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14:F22" si="5">(0.6702*E14) +0.0016</f>
+        <v>0.47174529999999987</v>
+      </c>
+      <c r="G14">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(G14:H14)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J22" si="6">I14-$D$11</f>
+        <v>0.312</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14:K22" si="7">(2.1507*J14)-0.0099</f>
+        <v>0.66111839999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="M14">
+        <v>0.6</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N22" si="8">AVERAGE(L14:M14)</f>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O22" si="9">N14-$D$11</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P22" si="10">(2.1507*O14) - 0.0099</f>
+        <v>0.41378789999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1.1305000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>0.77</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.51765400000000006</v>
+      </c>
+      <c r="G15">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(G15:H15)</f>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="7"/>
+        <v>0.41378789999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.626</v>
+      </c>
+      <c r="M15">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="9"/>
+        <v>0.16850000000000004</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>0.35249295000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="C16">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>0.78949999999999987</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.5307229</v>
+      </c>
+      <c r="G16">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H16">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G16:H16)</f>
+        <v>0.745</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="7"/>
+        <v>0.61595369999999994</v>
+      </c>
+      <c r="L16">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>0.65650000000000008</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>0.20250000000000007</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>0.42561675000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>1.21</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>0.84949999999999992</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="5"/>
+        <v>0.57093490000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(G17:H17)</f>
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="7"/>
+        <v>0.50519265000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>0.61349999999999993</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="9"/>
+        <v>0.15949999999999992</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>0.33313664999999981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.056</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>0.48246850000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.59</v>
+      </c>
+      <c r="H18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(G18:H18)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>0.12599999999999995</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="7"/>
+        <v>0.26108819999999988</v>
+      </c>
+      <c r="L18">
+        <v>0.59</v>
+      </c>
+      <c r="M18">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="10"/>
+        <v>0.2696909999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>1.2214999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>0.86099999999999977</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="5"/>
+        <v>0.57864219999999988</v>
+      </c>
+      <c r="G19">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H19">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(G19:H19)</f>
+        <v>0.66050000000000009</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>0.20650000000000007</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="7"/>
+        <v>0.43421955000000012</v>
+      </c>
+      <c r="L19">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.622</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>0.61949999999999994</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>0.16549999999999992</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>0.34604084999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="C20">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>1.2075</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="5"/>
+        <v>0.56925940000000008</v>
+      </c>
+      <c r="G20">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.73</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(G20:H20)</f>
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="7"/>
+        <v>0.61165229999999993</v>
+      </c>
+      <c r="L20">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="M20">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>0.18349999999999994</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>0.38475344999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>1.248</v>
+      </c>
+      <c r="C21">
+        <v>1.111</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>1.1795</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.55049380000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.63</v>
+      </c>
+      <c r="H21">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(G21:H21)</f>
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="7"/>
+        <v>0.55250805000000003</v>
+      </c>
+      <c r="L21">
+        <v>0.63</v>
+      </c>
+      <c r="M21">
+        <v>0.62</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>0.35786969999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>1.302</v>
+      </c>
+      <c r="C22">
+        <v>1.119</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>1.2105000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.57127000000000017</v>
+      </c>
+      <c r="G22">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(G22:H22)</f>
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="7"/>
+        <v>0.51164474999999998</v>
+      </c>
+      <c r="L22">
+        <v>0.625</v>
+      </c>
+      <c r="M22">
+        <v>0.6</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>0.15850000000000003</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>0.33098595000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <f>F13-P13</f>
+        <v>2.6094400000000184E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B34" si="11">F14-P14</f>
+        <v>5.7957399999999881E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="11"/>
+        <v>0.16516104999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="11"/>
+        <v>0.10510614999999984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="11"/>
+        <v>0.23779825000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="11"/>
+        <v>0.21277750000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="11"/>
+        <v>0.23260135000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="11"/>
+        <v>0.1845059500000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="11"/>
+        <v>0.19262410000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="11"/>
+        <v>0.24028405000000014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A919574-4EA8-4E26-99C2-75397A54F0F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B143C0-6EE0-4EF0-BECF-9C9D08601547}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="61">
   <si>
     <t>Sample</t>
   </si>
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad" xfId="9" builtinId="27"/>
@@ -5412,6 +5413,418 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="420773224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25771422175753245"/>
+                  <c:y val="4.738006985768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$Q$13:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85154116383112821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65341454437396074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85186867474858519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69098821875735172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65942497381939302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55898157081757649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79692600206508379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62903948861142178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97082793486682328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6469057876583314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-31_linediff(NB#4pg81-83'!$S$13:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7D5-419C-BC96-F777BD80DAC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409246904"/>
+        <c:axId val="413137320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409246904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413137320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413137320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409246904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8334,6 +8747,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14806,6 +15259,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -18677,6 +19646,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B86BAE7-C93A-44A5-9B89-B7F01A146C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20746,10 +21751,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418CE3A4-F8B9-4598-804D-EB101870D262}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20768,7 +21773,7 @@
     <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
@@ -20785,7 +21790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -20804,7 +21809,7 @@
         <v>0.33749999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -20823,7 +21828,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -20842,7 +21847,7 @@
         <v>0.25400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -20861,7 +21866,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -20880,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.25</v>
       </c>
@@ -20899,7 +21904,7 @@
         <v>0.35800000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.2</v>
       </c>
@@ -20918,7 +21923,7 @@
         <v>0.34899999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.15</v>
       </c>
@@ -20937,7 +21942,7 @@
         <v>0.33249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.1</v>
       </c>
@@ -20956,7 +21961,7 @@
         <v>0.17549999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -20975,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -21025,7 +22030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -21054,7 +22059,7 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="I13">
-        <f>AVERAGE(G13:H13)</f>
+        <f t="shared" ref="I13:I22" si="3">AVERAGE(G13:H13)</f>
         <v>0.627</v>
       </c>
       <c r="J13">
@@ -21072,19 +22077,29 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="N13">
-        <f>AVERAGE(L13:M13)</f>
-        <v>0.71099999999999997</v>
+        <f>AVERAGE(M13)</f>
+        <v>0.60199999999999998</v>
       </c>
       <c r="O13">
         <f>N13-$D$11</f>
-        <v>0.25699999999999995</v>
+        <v>0.14799999999999996</v>
       </c>
       <c r="P13" s="4">
         <f>(2.1507*O13) - 0.0099</f>
-        <v>0.54282989999999987</v>
+        <v>0.30840359999999989</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>P13/K13</f>
+        <v>0.85154116383112821</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13">
+        <v>0.222</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -21095,15 +22110,15 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D22" si="3">AVERAGE(B14:C14)</f>
+        <f t="shared" ref="D14:D22" si="4">AVERAGE(B14:C14)</f>
         <v>1.0619999999999998</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E22" si="4">D14-$D$6</f>
+        <f t="shared" ref="E14:E22" si="5">D14-$D$6</f>
         <v>0.70149999999999979</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:F22" si="5">(0.6702*E14) +0.0016</f>
+        <f t="shared" ref="F14:F22" si="6">(0.6702*E14) +0.0016</f>
         <v>0.47174529999999987</v>
       </c>
       <c r="G14">
@@ -21113,16 +22128,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="I14">
-        <f>AVERAGE(G14:H14)</f>
-        <v>0.76600000000000001</v>
+        <f>AVERAGE(H14)</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J22" si="6">I14-$D$11</f>
-        <v>0.312</v>
+        <f t="shared" ref="J14:J22" si="7">I14-$D$11</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" ref="K14:K22" si="7">(2.1507*J14)-0.0099</f>
-        <v>0.66111839999999999</v>
+        <f>(2.1507*J14)-0.0099</f>
+        <v>0.46540470000000006</v>
       </c>
       <c r="L14">
         <v>0.70199999999999996</v>
@@ -21131,19 +22146,29 @@
         <v>0.6</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N22" si="8">AVERAGE(L14:M14)</f>
-        <v>0.65100000000000002</v>
+        <f>AVERAGE(M14)</f>
+        <v>0.6</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O22" si="9">N14-$D$11</f>
-        <v>0.19700000000000001</v>
+        <f t="shared" ref="O14:O22" si="8">N14-$D$11</f>
+        <v>0.14599999999999996</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P22" si="10">(2.1507*O14) - 0.0099</f>
-        <v>0.41378789999999999</v>
+        <f t="shared" ref="P14:P22" si="9">(2.1507*O14) - 0.0099</f>
+        <v>0.30410219999999993</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q22" si="10">P14/K14</f>
+        <v>0.65341454437396074</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <v>12.9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -21154,15 +22179,15 @@
         <v>1.1950000000000001</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1305000000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51765400000000006</v>
       </c>
       <c r="G15">
@@ -21172,15 +22197,15 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="I15">
-        <f>AVERAGE(G15:H15)</f>
+        <f t="shared" si="3"/>
         <v>0.65100000000000002</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19700000000000001</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K14:K22" si="11">(2.1507*J15)-0.0099</f>
         <v>0.41378789999999999</v>
       </c>
       <c r="L15">
@@ -21190,19 +22215,29 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="N15">
+        <f t="shared" ref="N14:N22" si="12">AVERAGE(L15:M15)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="8"/>
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="O15">
+        <v>0.16850000000000004</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="9"/>
-        <v>0.16850000000000004</v>
-      </c>
-      <c r="P15">
+        <v>0.35249295000000008</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="10"/>
-        <v>0.35249295000000008</v>
+        <v>0.85186867474858519</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>9.51</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -21213,15 +22248,15 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78949999999999987</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5307229</v>
       </c>
       <c r="G16">
@@ -21231,15 +22266,15 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(G16:H16)</f>
+        <f t="shared" si="3"/>
         <v>0.745</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.61595369999999994</v>
       </c>
       <c r="L16">
@@ -21249,19 +22284,29 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="N16">
+        <f t="shared" si="12"/>
+        <v>0.65650000000000008</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="8"/>
-        <v>0.65650000000000008</v>
-      </c>
-      <c r="O16">
+        <v>0.20250000000000007</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="9"/>
-        <v>0.20250000000000007</v>
-      </c>
-      <c r="P16">
+        <v>0.42561675000000015</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="10"/>
-        <v>0.42561675000000015</v>
+        <v>0.69098821875735172</v>
+      </c>
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16">
+        <v>5.13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -21272,15 +22317,15 @@
         <v>1.1890000000000001</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84949999999999992</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57093490000000002</v>
       </c>
       <c r="G17">
@@ -21290,15 +22335,15 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="I17">
-        <f>AVERAGE(G17:H17)</f>
+        <f t="shared" si="3"/>
         <v>0.69350000000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23949999999999999</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.50519265000000002</v>
       </c>
       <c r="L17">
@@ -21308,19 +22353,29 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="N17">
+        <f t="shared" si="12"/>
+        <v>0.61349999999999993</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="8"/>
-        <v>0.61349999999999993</v>
-      </c>
-      <c r="O17">
+        <v>0.15949999999999992</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="9"/>
-        <v>0.15949999999999992</v>
-      </c>
-      <c r="P17">
+        <v>0.33313664999999981</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="10"/>
-        <v>0.33313664999999981</v>
+        <v>0.65942497381939302</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17">
+        <v>22.3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -21331,15 +22386,15 @@
         <v>1.056</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0780000000000001</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71750000000000003</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48246850000000002</v>
       </c>
       <c r="G18">
@@ -21349,15 +22404,15 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I18">
-        <f>AVERAGE(G18:H18)</f>
+        <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12599999999999995</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.26108819999999988</v>
       </c>
       <c r="L18">
@@ -21367,19 +22422,29 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="N18">
+        <f t="shared" si="12"/>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="8"/>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="O18">
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="9"/>
-        <v>0.12999999999999995</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="10"/>
         <v>0.2696909999999999</v>
       </c>
+      <c r="Q18">
+        <f>P18/F18</f>
+        <v>0.55898157081757649</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>6.56</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -21390,15 +22455,15 @@
         <v>1.1579999999999999</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2214999999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86099999999999977</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57864219999999988</v>
       </c>
       <c r="G19">
@@ -21408,15 +22473,15 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="I19">
-        <f>AVERAGE(G19:H19)</f>
+        <f t="shared" si="3"/>
         <v>0.66050000000000009</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20650000000000007</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.43421955000000012</v>
       </c>
       <c r="L19">
@@ -21426,19 +22491,29 @@
         <v>0.622</v>
       </c>
       <c r="N19">
+        <f t="shared" si="12"/>
+        <v>0.61949999999999994</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="8"/>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="O19">
+        <v>0.16549999999999992</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="9"/>
-        <v>0.16549999999999992</v>
-      </c>
-      <c r="P19">
+        <v>0.34604084999999984</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="10"/>
-        <v>0.34604084999999984</v>
+        <v>0.79692600206508379</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19">
+        <v>16.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -21449,15 +22524,15 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2075</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56925940000000008</v>
       </c>
       <c r="G20">
@@ -21467,15 +22542,15 @@
         <v>0.73</v>
       </c>
       <c r="I20">
-        <f>AVERAGE(G20:H20)</f>
+        <f t="shared" si="3"/>
         <v>0.74299999999999999</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28899999999999998</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.61165229999999993</v>
       </c>
       <c r="L20">
@@ -21485,19 +22560,29 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="N20">
+        <f t="shared" si="12"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="8"/>
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="O20">
+        <v>0.18349999999999994</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="9"/>
-        <v>0.18349999999999994</v>
-      </c>
-      <c r="P20">
+        <v>0.38475344999999989</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="10"/>
-        <v>0.38475344999999989</v>
+        <v>0.62903948861142178</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20">
+        <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -21508,15 +22593,15 @@
         <v>1.111</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1795</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81899999999999995</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55049380000000003</v>
       </c>
       <c r="G21">
@@ -21526,16 +22611,16 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="I21">
-        <f>AVERAGE(G21:H21)</f>
-        <v>0.71550000000000002</v>
+        <f>AVERAGE(G21)</f>
+        <v>0.63</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
-        <v>0.26150000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.17599999999999999</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="7"/>
-        <v>0.55250805000000003</v>
+        <f t="shared" si="11"/>
+        <v>0.36862319999999998</v>
       </c>
       <c r="L21">
         <v>0.63</v>
@@ -21544,19 +22629,29 @@
         <v>0.62</v>
       </c>
       <c r="N21">
+        <f t="shared" si="12"/>
+        <v>0.625</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="8"/>
-        <v>0.625</v>
-      </c>
-      <c r="O21">
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="9"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="P21">
+        <v>0.35786969999999996</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="10"/>
-        <v>0.35786969999999996</v>
+        <v>0.97082793486682328</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>9.94</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -21567,15 +22662,15 @@
         <v>1.119</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2105000000000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57127000000000017</v>
       </c>
       <c r="G22">
@@ -21585,15 +22680,15 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(G22:H22)</f>
+        <f t="shared" si="3"/>
         <v>0.69650000000000001</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24249999999999999</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.51164474999999998</v>
       </c>
       <c r="L22">
@@ -21603,19 +22698,29 @@
         <v>0.6</v>
       </c>
       <c r="N22">
+        <f t="shared" si="12"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="8"/>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="O22">
+        <v>0.15850000000000003</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="9"/>
-        <v>0.15850000000000003</v>
-      </c>
-      <c r="P22">
+        <v>0.33098595000000003</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="10"/>
-        <v>0.33098595000000003</v>
+        <v>0.6469057876583314</v>
+      </c>
+      <c r="R22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22">
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -21623,75 +22728,75 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
         <f>F13-P13</f>
-        <v>2.6094400000000184E-2</v>
+        <v>0.26052070000000016</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B34" si="11">F14-P14</f>
-        <v>5.7957399999999881E-2</v>
+        <f t="shared" ref="B26:B34" si="13">F14-P14</f>
+        <v>0.16764309999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.16516104999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10510614999999984</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.23779825000000021</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.21277750000000012</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.23260135000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.1845059500000002</v>
       </c>
     </row>
@@ -21700,7 +22805,7 @@
         <v>46</v>
       </c>
       <c r="B33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.19262410000000008</v>
       </c>
     </row>
@@ -21709,7 +22814,7 @@
         <v>47</v>
       </c>
       <c r="B34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.24028405000000014</v>
       </c>
     </row>

--- a/Data/2018-07-20_prelim_protein.xlsx
+++ b/Data/2018-07-20_prelim_protein.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A020EF3-56C7-4FEC-8421-196FA5FC0B18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500" firstSheet="8" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
-    <sheet name="2018-07-23" sheetId="2" r:id="rId2"/>
-    <sheet name="2018-07-25 (1st quant)" sheetId="3" r:id="rId3"/>
-    <sheet name="2018-07-25 (unfold)" sheetId="4" r:id="rId4"/>
-    <sheet name="2018-07-27 (new unfold)" sheetId="5" r:id="rId5"/>
-    <sheet name="2018-07-27 (Bradford_250uL)" sheetId="6" r:id="rId6"/>
-    <sheet name="2018-07-27 (Bradford_150uL)" sheetId="7" r:id="rId7"/>
-    <sheet name="2018-07-27 (Bradford_150uL_dil)" sheetId="8" r:id="rId8"/>
-    <sheet name="2018-07-30" sheetId="9" r:id="rId9"/>
-    <sheet name="2018-07-30_Bradford_vs_BCA" sheetId="10" r:id="rId10"/>
+    <sheet name="2018-07-20 (pg125-128)" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-07-23 (pg132-134)" sheetId="2" r:id="rId2"/>
+    <sheet name="2018-07-25(1st quant pg138-140)" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-07-25 (unfold pg 138-142)" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-07-27 (unfold pg 145-149)" sheetId="5" r:id="rId5"/>
+    <sheet name="2018-07-27 (Brad_250uL_pg 146)" sheetId="6" r:id="rId6"/>
+    <sheet name="2018-07-27 (Brad_150uLpg 148)" sheetId="7" r:id="rId7"/>
+    <sheet name="2018-07-27 (Brad_150uL_pg149)" sheetId="8" r:id="rId8"/>
+    <sheet name="2018-07-30(pg 150-151)" sheetId="9" r:id="rId9"/>
+    <sheet name="2018-07-30_Brad_vs_BCA(pg154)" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -153,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -251,7 +245,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -265,6 +259,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -278,7 +273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018-07-20'!$E$1</c:f>
+              <c:f>'2018-07-20 (pg125-128)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -297,12 +292,13 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-20'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-20 (pg125-128)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -313,28 +309,28 @@
                   <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45449999999999996</c:v>
+                  <c:v>0.4545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13550000000000001</c:v>
+                  <c:v>0.1355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-20'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-20 (pg125-128)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -343,13 +339,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBFD-480F-BBCF-2B1EB587DBB7}"/>
             </c:ext>
@@ -363,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112332984"/>
-        <c:axId val="2117103832"/>
+        <c:axId val="2135341432"/>
+        <c:axId val="2121200888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112332984"/>
+        <c:axId val="2135341432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,18 +391,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117103832"/>
+        <c:crossAx val="2121200888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117103832"/>
+        <c:axId val="2121200888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,13 +425,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112332984"/>
+        <c:crossAx val="2135341432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -455,14 +453,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -476,6 +474,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -550,6 +549,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -582,39 +582,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_250uL)'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-27 (Brad_250uL_pg 146)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35849999999999999</c:v>
+                  <c:v>0.3585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19749999999999995</c:v>
+                  <c:v>0.1975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10099999999999998</c:v>
+                  <c:v>0.101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0000000000000018E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_250uL)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-27 (Brad_250uL_pg 146)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -623,13 +623,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B238-4273-9498-55FFE71D9F2E}"/>
             </c:ext>
@@ -643,11 +643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312287736"/>
-        <c:axId val="312291016"/>
+        <c:axId val="2140118056"/>
+        <c:axId val="2139146440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312287736"/>
+        <c:axId val="2140118056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,12 +690,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312291016"/>
+        <c:crossAx val="2139146440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312291016"/>
+        <c:axId val="2139146440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312287736"/>
+        <c:crossAx val="2140118056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -752,14 +752,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -809,6 +809,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,18 +872,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_250uL)'!$G$7:$G$16</c:f>
+              <c:f>'2018-07-27 (Brad_250uL_pg 146)'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.6</c:v>
@@ -900,7 +901,7 @@
                   <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.7</c:v>
@@ -910,45 +911,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_250uL)'!$H$7:$H$16</c:f>
+              <c:f>'2018-07-27 (Brad_250uL_pg 146)'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91974741245374692</c:v>
+                  <c:v>0.919747412453747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0668771562885428</c:v>
+                  <c:v>1.066877156288543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0133754312577075</c:v>
+                  <c:v>1.013375431257707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90637198119603801</c:v>
+                  <c:v>0.906371981196038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0133754312577075</c:v>
+                  <c:v>1.013375431257707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90637198119603801</c:v>
+                  <c:v>0.906371981196038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90637198119603801</c:v>
+                  <c:v>0.906371981196038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62548792478415216</c:v>
+                  <c:v>0.625487924784152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53185990598019017</c:v>
+                  <c:v>0.53185990598019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-264C-4B95-B7BE-FD5E636902EE}"/>
             </c:ext>
@@ -962,11 +963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309583008"/>
-        <c:axId val="309581696"/>
+        <c:axId val="2119620312"/>
+        <c:axId val="2134623640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309583008"/>
+        <c:axId val="2119620312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,12 +1010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309581696"/>
+        <c:crossAx val="2134623640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309581696"/>
+        <c:axId val="2134623640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309583008"/>
+        <c:crossAx val="2119620312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1071,14 +1072,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1114,7 +1115,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1128,6 +1129,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1190,15 +1192,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-27 (Brad_150uLpg 148)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -1207,14 +1209,14 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL)'!$C$2:$C$6</c:f>
+              <c:f>'2018-07-27 (Brad_150uLpg 148)'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1222,22 +1224,22 @@
                   <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1000000000000028E-2</c:v>
+                  <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10199999999999998</c:v>
+                  <c:v>-0.102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-17D1-45E3-BF23-F2738AE73DFD}"/>
             </c:ext>
@@ -1251,11 +1253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435020320"/>
-        <c:axId val="435012120"/>
+        <c:axId val="2134274568"/>
+        <c:axId val="2115253656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435020320"/>
+        <c:axId val="2134274568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,12 +1300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435012120"/>
+        <c:crossAx val="2115253656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435012120"/>
+        <c:axId val="2115253656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435020320"/>
+        <c:crossAx val="2134274568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1360,14 +1362,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1403,7 +1405,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1442,6 +1444,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1450,26 +1453,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1530,6 +1513,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1562,39 +1546,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$C$2:$C$6</c:f>
+              <c:f>'2018-07-27 (Brad_150uL_pg149)'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94500000000000006</c:v>
+                  <c:v>0.945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48199999999999998</c:v>
+                  <c:v>0.482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16099999999999998</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3999999999999984E-2</c:v>
+                  <c:v>0.044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-27 (Brad_150uL_pg149)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -1603,13 +1587,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A26F-4038-B586-CE38F62E1257}"/>
             </c:ext>
@@ -1623,11 +1607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435019008"/>
-        <c:axId val="435015072"/>
+        <c:axId val="2139898088"/>
+        <c:axId val="2139271368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435019008"/>
+        <c:axId val="2139898088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,12 +1668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435015072"/>
+        <c:crossAx val="2139271368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435015072"/>
+        <c:axId val="2139271368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435019008"/>
+        <c:crossAx val="2139898088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,14 +1744,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1803,7 +1787,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1847,6 +1831,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1855,26 +1840,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1909,18 +1874,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$E$7:$E$16</c:f>
+              <c:f>'2018-07-27 (Brad_150uL_pg149)'!$E$7:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.6</c:v>
@@ -1938,7 +1903,7 @@
                   <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.7</c:v>
@@ -1948,12 +1913,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$F$7:$F$16</c:f>
+              <c:f>'2018-07-27 (Brad_150uL_pg149)'!$F$7:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.177077726769036</c:v>
@@ -1962,31 +1927,31 @@
                   <c:v>1.177077726769036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88616431850561972</c:v>
+                  <c:v>0.88616431850562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7470318189013776</c:v>
+                  <c:v>0.747031818901378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83557068228589493</c:v>
+                  <c:v>0.835570682285895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78497704606617036</c:v>
+                  <c:v>0.78497704606617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86086750039575721</c:v>
+                  <c:v>0.860867500395757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0252968181098623</c:v>
+                  <c:v>1.025296818109862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0245211334494231</c:v>
+                  <c:v>2.024521133449423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5868-4D17-B3A8-C00EE37D7B14}"/>
             </c:ext>
@@ -2000,11 +1965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435012776"/>
-        <c:axId val="435020320"/>
+        <c:axId val="2139203032"/>
+        <c:axId val="2139637816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435012776"/>
+        <c:axId val="2139203032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +2012,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435020320"/>
+        <c:crossAx val="2139637816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435020320"/>
+        <c:axId val="2139637816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435012776"/>
+        <c:crossAx val="2139203032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2109,14 +2074,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2152,7 +2117,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2166,6 +2131,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2197,7 +2163,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.093645468537396"/>
+          <c:y val="0.149877962335"/>
+          <c:w val="0.845285182128438"/>
+          <c:h val="0.738199896545778"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2268,6 +2244,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2300,25 +2277,25 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30'!$E$5:$E$7</c:f>
+              <c:f>'2018-07-30(pg 150-151)'!$E$5:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1964999999999999</c:v>
+                  <c:v>0.1965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30'!$A$5:$A$7</c:f>
+              <c:f>'2018-07-30(pg 150-151)'!$A$5:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2329,13 +2306,13 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5E3-4D13-8C87-5C11CEA14447}"/>
             </c:ext>
@@ -2349,11 +2326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403989912"/>
-        <c:axId val="403997456"/>
+        <c:axId val="2139414920"/>
+        <c:axId val="2139111192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403989912"/>
+        <c:axId val="2139414920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,12 +2387,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403997456"/>
+        <c:crossAx val="2139111192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403997456"/>
+        <c:axId val="2139111192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403989912"/>
+        <c:crossAx val="2139414920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2486,14 +2463,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2529,7 +2506,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2543,6 +2520,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2634,18 +2612,18 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30'!$G$8:$G$17</c:f>
+              <c:f>'2018-07-30(pg 150-151)'!$G$8:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.9</c:v>
@@ -2654,10 +2632,10 @@
                   <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.5</c:v>
@@ -2666,52 +2644,52 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30'!$H$8:$H$17</c:f>
+              <c:f>'2018-07-30(pg 150-151)'!$H$8:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70333792298774123</c:v>
+                  <c:v>0.703337922987741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57045803432600062</c:v>
+                  <c:v>0.570458034326001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50247297501069133</c:v>
+                  <c:v>0.502472975010691</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.252164347531598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19654020809179948</c:v>
+                  <c:v>0.196540208091799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2645252674071088</c:v>
+                  <c:v>0.264525267407109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2645252674071088</c:v>
+                  <c:v>0.264525267407109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15018675855863406</c:v>
+                  <c:v>0.150186758558634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15018675855863406</c:v>
+                  <c:v>0.150186758558634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A541-4150-A784-4C2EB974D094}"/>
             </c:ext>
@@ -2725,11 +2703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489364552"/>
-        <c:axId val="489367504"/>
+        <c:axId val="2112946984"/>
+        <c:axId val="2121705688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489364552"/>
+        <c:axId val="2112946984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,12 +2764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489367504"/>
+        <c:crossAx val="2121705688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489367504"/>
+        <c:axId val="2121705688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489364552"/>
+        <c:crossAx val="2112946984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2862,14 +2840,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2905,7 +2883,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2949,6 +2927,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2957,26 +2936,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3037,6 +2996,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3069,7 +3029,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$A$3:$A$7</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3083,34 +3043,34 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$E$3:$E$7</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33349999999999991</c:v>
+                  <c:v>0.3335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23399999999999999</c:v>
+                  <c:v>0.234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16149999999999998</c:v>
+                  <c:v>0.1615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28BE-447A-B08A-072BF48D2DDD}"/>
             </c:ext>
@@ -3124,11 +3084,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421311096"/>
-        <c:axId val="421311752"/>
+        <c:axId val="2119578584"/>
+        <c:axId val="2115841736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421311096"/>
+        <c:axId val="2119578584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,12 +3145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421311752"/>
+        <c:crossAx val="2115841736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421311752"/>
+        <c:axId val="2115841736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421311096"/>
+        <c:crossAx val="2119578584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3261,14 +3221,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3304,7 +3264,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3343,6 +3303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3351,26 +3312,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3405,18 +3346,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$G$8:$G$17</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$G$8:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.9</c:v>
@@ -3425,10 +3366,10 @@
                   <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.5</c:v>
@@ -3437,52 +3378,52 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$H$8:$H$17</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$H$8:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0199673302553165</c:v>
+                  <c:v>1.019967330255316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0177487380047257</c:v>
+                  <c:v>1.017748738004726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81807543545156303</c:v>
+                  <c:v>0.818075435451563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56737451113481396</c:v>
+                  <c:v>0.567374511134814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43647756834996232</c:v>
+                  <c:v>0.436477568349962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43647756834996232</c:v>
+                  <c:v>0.436477568349962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31223640231688327</c:v>
+                  <c:v>0.312236402316883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30336203331452044</c:v>
+                  <c:v>0.30336203331452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB9C-4868-A9D6-70D0AC14C617}"/>
             </c:ext>
@@ -3496,15 +3437,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432468576"/>
-        <c:axId val="432469232"/>
+        <c:axId val="2116636504"/>
+        <c:axId val="2119692696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432468576"/>
+        <c:axId val="2116636504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="25"/>
+          <c:max val="70.0"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3545,16 +3486,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432469232"/>
+        <c:crossAx val="2119692696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432469232"/>
+        <c:axId val="2119692696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="0"/>
+          <c:max val="1.1"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3595,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432468576"/>
+        <c:crossAx val="2116636504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3609,14 +3550,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3652,7 +3593,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3696,6 +3637,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3704,26 +3646,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3784,6 +3706,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3816,28 +3739,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$E$21:$E$24</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$E$21:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.28700000000000003</c:v>
+                  <c:v>0.287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15650000000000003</c:v>
+                  <c:v>0.1565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10100000000000003</c:v>
+                  <c:v>0.101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$A$21:$A$24</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$A$21:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3851,13 +3774,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F576-41B4-9002-44F1BB007EFA}"/>
             </c:ext>
@@ -3871,11 +3794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508451416"/>
-        <c:axId val="508449776"/>
+        <c:axId val="2131803320"/>
+        <c:axId val="2134155384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508451416"/>
+        <c:axId val="2131803320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,12 +3855,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508449776"/>
+        <c:crossAx val="2134155384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508449776"/>
+        <c:axId val="2134155384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +3917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508451416"/>
+        <c:crossAx val="2131803320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4008,14 +3931,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4051,7 +3974,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4083,12 +4006,13 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-23'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-23 (pg132-134)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4102,25 +4026,25 @@
                   <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47099999999999992</c:v>
+                  <c:v>0.471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-23'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-23 (pg132-134)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -4129,13 +4053,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38A7-420D-8720-8EA2D0FDDD03}"/>
             </c:ext>
@@ -4149,11 +4073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116914296"/>
-        <c:axId val="2134535768"/>
+        <c:axId val="2139664424"/>
+        <c:axId val="2134303480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116914296"/>
+        <c:axId val="2139664424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,18 +4103,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134535768"/>
+        <c:crossAx val="2134303480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134535768"/>
+        <c:axId val="2134303480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,13 +4142,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116914296"/>
+        <c:crossAx val="2139664424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4244,14 +4170,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4290,6 +4216,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4298,26 +4225,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4326,10 +4233,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.297361267341582E-2"/>
-          <c:y val="0.19219178082191782"/>
-          <c:w val="0.87559781589801278"/>
-          <c:h val="0.72471110631718982"/>
+          <c:x val="0.0929736126734158"/>
+          <c:y val="0.192191780821918"/>
+          <c:w val="0.875597815898013"/>
+          <c:h val="0.72471110631719"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4362,18 +4269,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$G$25:$G$34</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$G$25:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.9</c:v>
@@ -4382,10 +4289,10 @@
                   <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.5</c:v>
@@ -4394,52 +4301,52 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-30_Bradford_vs_BCA'!$H$25:$H$34</c:f>
+              <c:f>'2018-07-30_Brad_vs_BCA(pg154)'!$H$25:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83570291330064395</c:v>
+                  <c:v>0.835702913300644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8236811752494716</c:v>
+                  <c:v>0.823681175249472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86776088143710384</c:v>
+                  <c:v>0.867760881437104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69344567969510373</c:v>
+                  <c:v>0.693445679695104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61129713634542593</c:v>
+                  <c:v>0.611297136345426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60528626731983981</c:v>
+                  <c:v>0.60528626731984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60528626731983981</c:v>
+                  <c:v>0.60528626731984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53515946202133391</c:v>
+                  <c:v>0.535159462021334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54317395405544888</c:v>
+                  <c:v>0.543173954055449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F48F-4DC0-A693-47E00A626713}"/>
             </c:ext>
@@ -4453,11 +4360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508439608"/>
-        <c:axId val="508446824"/>
+        <c:axId val="2115496456"/>
+        <c:axId val="2116926344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508439608"/>
+        <c:axId val="2115496456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,15 +4407,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508446824"/>
+        <c:crossAx val="2116926344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508446824"/>
+        <c:axId val="2116926344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4550,7 +4457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508439608"/>
+        <c:crossAx val="2115496456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4564,14 +4471,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4607,7 +4514,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4636,24 +4543,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-23'!$H$7:$H$16</c:f>
+              <c:f>'2018-07-23 (pg132-134)'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>35.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>39.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53.4</c:v>
@@ -4668,52 +4575,52 @@
                   <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>70.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-23'!$G$7:$G$16</c:f>
+              <c:f>'2018-07-23 (pg132-134)'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78314620853315531</c:v>
+                  <c:v>0.783146208533155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7321217870115444</c:v>
+                  <c:v>0.732121787011544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38770694174067338</c:v>
+                  <c:v>0.387706941740673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36219473097986793</c:v>
+                  <c:v>0.362194730979868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19636536103463459</c:v>
+                  <c:v>0.196365361034635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26014588793664706</c:v>
+                  <c:v>0.260145887936647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14534093951302415</c:v>
+                  <c:v>0.145340939513024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20912146641503707</c:v>
+                  <c:v>0.209121466415037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31117030945825752</c:v>
+                  <c:v>0.311170309458257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D40D-4460-AEEA-720DCD2F1254}"/>
             </c:ext>
@@ -4727,14 +4634,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132526072"/>
-        <c:axId val="2131803320"/>
+        <c:axId val="2120379224"/>
+        <c:axId val="2120350312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132526072"/>
+        <c:axId val="2120379224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="25"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4742,12 +4649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131803320"/>
+        <c:crossAx val="2120350312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131803320"/>
+        <c:axId val="2120350312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132526072"/>
+        <c:crossAx val="2120379224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4768,14 +4675,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4789,6 +4696,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4863,6 +4771,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4895,39 +4804,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-25 (1st quant)'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-25(1st quant pg138-140)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9739999999999998</c:v>
+                  <c:v>1.974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1164999999999998</c:v>
+                  <c:v>1.1165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60300000000000009</c:v>
+                  <c:v>0.603</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-25 (1st quant)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-25(1st quant pg138-140)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -4936,13 +4845,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-13D8-4021-9851-F1B9C384F2EA}"/>
             </c:ext>
@@ -4956,11 +4865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115053144"/>
-        <c:axId val="2134558536"/>
+        <c:axId val="2120246504"/>
+        <c:axId val="2139206712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115053144"/>
+        <c:axId val="2120246504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,12 +4926,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134558536"/>
+        <c:crossAx val="2139206712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134558536"/>
+        <c:axId val="2139206712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5079,7 +4988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115053144"/>
+        <c:crossAx val="2120246504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5093,14 +5002,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5136,7 +5045,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5150,6 +5059,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5238,6 +5148,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5270,39 +5181,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-25 (unfold pg 138-142)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1335000000000002</c:v>
+                  <c:v>2.1335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1095000000000002</c:v>
+                  <c:v>1.1095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35450000000000004</c:v>
+                  <c:v>0.3545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-25 (unfold pg 138-142)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -5311,13 +5222,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33D4-413B-A557-DA21A185F599}"/>
             </c:ext>
@@ -5331,11 +5242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118331016"/>
-        <c:axId val="2118664424"/>
+        <c:axId val="2121189976"/>
+        <c:axId val="2112639160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118331016"/>
+        <c:axId val="2121189976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,6 +5292,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5389,26 +5301,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5447,12 +5339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118664424"/>
+        <c:crossAx val="2112639160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118664424"/>
+        <c:axId val="2112639160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5498,6 +5390,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5506,26 +5399,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5564,7 +5437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118331016"/>
+        <c:crossAx val="2121189976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5578,14 +5451,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5621,7 +5494,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5665,6 +5538,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5673,26 +5547,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5727,18 +5581,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$G$7:$G$16</c:f>
+              <c:f>'2018-07-25 (unfold pg 138-142)'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.6</c:v>
@@ -5756,7 +5610,7 @@
                   <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.7</c:v>
@@ -5766,45 +5620,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$H$7:$H$16</c:f>
+              <c:f>'2018-07-25 (unfold pg 138-142)'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0073083878855806</c:v>
+                  <c:v>1.007308387885581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98416515958124273</c:v>
+                  <c:v>0.984165159581243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91960773325861611</c:v>
+                  <c:v>0.919607733258616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9037728928398584</c:v>
+                  <c:v>0.903772892839858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89768256960187476</c:v>
+                  <c:v>0.897682569601875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90011869889706841</c:v>
+                  <c:v>0.900118698897068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90011869889706841</c:v>
+                  <c:v>0.900118698897068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88062966453552061</c:v>
+                  <c:v>0.880629664535521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8769754705927304</c:v>
+                  <c:v>0.87697547059273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F36-4DA1-8076-FE4C0CE23D68}"/>
             </c:ext>
@@ -5818,11 +5672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131828216"/>
-        <c:axId val="2119728088"/>
+        <c:axId val="2134146456"/>
+        <c:axId val="2134224840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131828216"/>
+        <c:axId val="2134146456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,12 +5719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119728088"/>
+        <c:crossAx val="2134224840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119728088"/>
+        <c:axId val="2134224840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131828216"/>
+        <c:crossAx val="2134146456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5927,14 +5781,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5970,7 +5824,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6009,6 +5863,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6017,26 +5872,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6071,30 +5906,30 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$E$19:$E$28</c:f>
+              <c:f>'2018-07-25 (unfold pg 138-142)'!$E$19:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39880660000000007</c:v>
+                  <c:v>0.3988066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39019900000000007</c:v>
+                  <c:v>0.390199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38732980000000006</c:v>
+                  <c:v>0.3873298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36820180000000002</c:v>
+                  <c:v>0.3682018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35863780000000006</c:v>
+                  <c:v>0.3586378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35385580000000005</c:v>
+                  <c:v>0.3538558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35194300000000001</c:v>
+                  <c:v>0.351943</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3404662</c:v>
@@ -6106,7 +5941,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5147-4516-B7AD-978F23DA6946}"/>
             </c:ext>
@@ -6120,11 +5955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112274392"/>
-        <c:axId val="2139407160"/>
+        <c:axId val="2139247288"/>
+        <c:axId val="2120255176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112274392"/>
+        <c:axId val="2139247288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6166,12 +6001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139407160"/>
+        <c:crossAx val="2120255176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139407160"/>
+        <c:axId val="2120255176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6214,7 +6049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112274392"/>
+        <c:crossAx val="2139247288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6228,14 +6063,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6271,7 +6106,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6285,6 +6120,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6374,6 +6210,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6406,39 +6243,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (new unfold)'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-27 (unfold pg 145-149)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9615000000000002</c:v>
+                  <c:v>1.9615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59400000000000008</c:v>
+                  <c:v>0.594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13150000000000001</c:v>
+                  <c:v>0.1315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0000000000000027E-3</c:v>
+                  <c:v>0.003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (new unfold)'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-27 (unfold pg 145-149)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -6447,13 +6284,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-17E8-4D82-AD5F-17599C3ECAA9}"/>
             </c:ext>
@@ -6467,11 +6304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428776952"/>
-        <c:axId val="428773344"/>
+        <c:axId val="2135752744"/>
+        <c:axId val="2134192936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428776952"/>
+        <c:axId val="2135752744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6528,12 +6365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428773344"/>
+        <c:crossAx val="2134192936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428773344"/>
+        <c:axId val="2134192936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,7 +6427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428776952"/>
+        <c:crossAx val="2135752744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6604,14 +6441,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6647,7 +6484,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6661,6 +6498,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6723,18 +6561,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-27 (new unfold)'!$G$7:$G$16</c:f>
+              <c:f>'2018-07-27 (unfold pg 145-149)'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.6</c:v>
@@ -6752,7 +6590,7 @@
                   <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.7</c:v>
@@ -6762,45 +6600,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-27 (new unfold)'!$H$7:$H$16</c:f>
+              <c:f>'2018-07-27 (unfold pg 145-149)'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.044906495230941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1088018958517005</c:v>
+                  <c:v>1.108801895851701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9291336290934834</c:v>
+                  <c:v>0.929133629093483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79934935279934594</c:v>
+                  <c:v>0.799349352799346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88384656135249628</c:v>
+                  <c:v>0.883846561352496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73400415214031833</c:v>
+                  <c:v>0.734004152140318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73400415214031833</c:v>
+                  <c:v>0.734004152140318</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2483085905226414</c:v>
+                  <c:v>1.248308590522641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3676151926884605</c:v>
+                  <c:v>1.36761519268846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8144-40A3-97AE-92DC6FEA578F}"/>
             </c:ext>
@@ -6814,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435461256"/>
-        <c:axId val="435461584"/>
+        <c:axId val="2134422600"/>
+        <c:axId val="2115346088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435461256"/>
+        <c:axId val="2134422600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,12 +6713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435461584"/>
+        <c:crossAx val="2115346088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435461584"/>
+        <c:axId val="2115346088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435461256"/>
+        <c:crossAx val="2134422600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6951,14 +6789,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -16465,7 +16303,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16506,7 +16344,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B395988-A19E-4C78-94DC-A4B5CDF1F264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B395988-A19E-4C78-94DC-A4B5CDF1F264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16542,7 +16380,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C61326F-391B-46C2-BF4D-E131D7DD500F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C61326F-391B-46C2-BF4D-E131D7DD500F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16578,7 +16416,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAA836A-7FF4-4CB9-B291-310812025D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BAA836A-7FF4-4CB9-B291-310812025D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16614,7 +16452,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013E2C97-84BE-4673-8C03-4D4D21E47C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{013E2C97-84BE-4673-8C03-4D4D21E47C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16655,7 +16493,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16691,7 +16529,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16732,7 +16570,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16773,7 +16611,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16809,7 +16647,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16845,7 +16683,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16886,7 +16724,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B1820F-8AF8-4FC4-8F06-3162D5EE9C2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18B1820F-8AF8-4FC4-8F06-3162D5EE9C2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16922,7 +16760,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85781A87-FBAF-4EB4-87D4-D14A2C712E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85781A87-FBAF-4EB4-87D4-D14A2C712E52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16963,7 +16801,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345F16BC-E1D6-4094-A7AC-85C07E04D11B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{345F16BC-E1D6-4094-A7AC-85C07E04D11B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16999,7 +16837,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E621CF-5AA7-4738-985B-2FFC5DC435E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6E621CF-5AA7-4738-985B-2FFC5DC435E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17040,7 +16878,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9DD860-9694-449E-9F61-B8A094319083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9DD860-9694-449E-9F61-B8A094319083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17081,7 +16919,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE5EC09-B4C4-46B3-9E20-557A24A53885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEE5EC09-B4C4-46B3-9E20-557A24A53885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17117,7 +16955,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A32235-67C9-48C5-BEFA-4DA0932BA9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4A32235-67C9-48C5-BEFA-4DA0932BA9B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17158,7 +16996,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48BB600-82E3-4FAD-AB69-731C1BD6B2FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C48BB600-82E3-4FAD-AB69-731C1BD6B2FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17194,7 +17032,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6D37C0-6DFC-4E23-A022-62E930553A39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A6D37C0-6DFC-4E23-A022-62E930553A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17536,19 +17374,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17571,7 +17409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17590,7 +17428,7 @@
         <v>2.1555</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17609,7 +17447,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -17628,7 +17466,7 @@
         <v>0.45449999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -17647,7 +17485,7 @@
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0</v>
       </c>
@@ -17665,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -17692,7 +17530,7 @@
         <v>9.5287600000000028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -17715,7 +17553,7 @@
         <v>0.51801439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -17742,7 +17580,7 @@
         <v>0.15670519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -17778,24 +17616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F9132-F282-47DF-B20B-4B7988AF257A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17824,7 +17662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -17843,7 +17681,7 @@
         <v>0.33349999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -17862,7 +17700,7 @@
         <v>0.23399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -17881,7 +17719,7 @@
         <v>0.16149999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>0</v>
       </c>
@@ -17900,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -17934,7 +17772,7 @@
         <v>183.22778249999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -17968,7 +17806,7 @@
         <v>147.81107249999994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -18002,7 +17840,7 @@
         <v>150.76246499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -18033,7 +17871,7 @@
         <v>150.43453249999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -18067,7 +17905,7 @@
         <v>120.9206075</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -18101,7 +17939,7 @@
         <v>83.864235000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -18135,7 +17973,7 @@
         <v>64.516217499999954</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -18169,7 +18007,7 @@
         <v>64.516217499999954</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -18203,7 +18041,7 @@
         <v>46.151997499999979</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -18237,12 +18075,12 @@
         <v>44.840267499999975</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -18271,7 +18109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>0.25</v>
       </c>
@@ -18290,7 +18128,7 @@
         <v>0.28700000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>0.15</v>
       </c>
@@ -18309,7 +18147,7 @@
         <v>0.15650000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -18328,7 +18166,7 @@
         <v>0.10100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0</v>
       </c>
@@ -18347,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -18381,7 +18219,7 @@
         <v>106.10104750000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -18415,7 +18253,7 @@
         <v>88.668954500000012</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -18449,7 +18287,7 @@
         <v>87.393435500000024</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -18483,7 +18321,7 @@
         <v>92.070338500000034</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -18517,7 +18355,7 @@
         <v>73.575312999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -18551,7 +18389,7 @@
         <v>64.859266500000018</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -18585,7 +18423,7 @@
         <v>64.221507000000031</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -18619,7 +18457,7 @@
         <v>64.221507000000031</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -18653,7 +18491,7 @@
         <v>56.780979500000008</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -18689,22 +18527,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18724,7 +18567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18743,7 +18586,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18762,7 +18605,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -18781,7 +18624,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -18800,7 +18643,7 @@
         <v>0.47099999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -18819,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -18849,7 +18692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -18879,7 +18722,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -18909,7 +18752,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -18939,7 +18782,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -18969,7 +18812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -18999,7 +18842,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -19029,7 +18872,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -19059,7 +18902,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -19089,7 +18932,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -19131,24 +18974,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19168,7 +19011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19191,7 +19034,7 @@
         <v>1.9447267999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19214,7 +19057,7 @@
         <v>1.0716203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -19237,7 +19080,7 @@
         <v>0.5487746</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -19260,7 +19103,7 @@
         <v>0.250442</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0</v>
       </c>
@@ -19282,7 +19125,7 @@
         <v>-6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -19317,22 +19160,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19352,7 +19195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19371,7 +19214,7 @@
         <v>2.1335000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19390,7 +19233,7 @@
         <v>1.1095000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -19409,7 +19252,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -19428,7 +19271,7 @@
         <v>0.35450000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -19447,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -19477,7 +19320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -19507,7 +19350,7 @@
         <v>1.0073083878855806</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -19537,7 +19380,7 @@
         <v>0.98416515958124273</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -19567,7 +19410,7 @@
         <v>0.91960773325861611</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -19597,7 +19440,7 @@
         <v>0.9037728928398584</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -19627,7 +19470,7 @@
         <v>0.89768256960187476</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -19657,7 +19500,7 @@
         <v>0.90011869889706841</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -19687,7 +19530,7 @@
         <v>0.90011869889706841</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -19717,7 +19560,7 @@
         <v>0.88062966453552061</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -19747,12 +19590,12 @@
         <v>0.8769754705927304</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19">
         <v>0.55100000000000005</v>
       </c>
@@ -19765,7 +19608,7 @@
         <v>0.39880660000000007</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20">
         <v>0.54200000000000004</v>
       </c>
@@ -19778,7 +19621,7 @@
         <v>0.39019900000000007</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21">
         <v>0.53900000000000003</v>
       </c>
@@ -19791,7 +19634,7 @@
         <v>0.38732980000000006</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22">
         <v>0.51900000000000002</v>
       </c>
@@ -19804,7 +19647,7 @@
         <v>0.36820180000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23">
         <v>0.50900000000000001</v>
       </c>
@@ -19817,7 +19660,7 @@
         <v>0.35863780000000006</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24">
         <v>0.504</v>
       </c>
@@ -19830,7 +19673,7 @@
         <v>0.35385580000000005</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25">
         <v>0.502</v>
       </c>
@@ -19843,7 +19686,7 @@
         <v>0.35194300000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26">
         <v>0.504</v>
       </c>
@@ -19853,7 +19696,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27">
         <v>0.49</v>
       </c>
@@ -19866,7 +19709,7 @@
         <v>0.3404662</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28">
         <v>0.48799999999999999</v>
       </c>
@@ -19891,25 +19734,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73B5B00-37CE-4BAD-8F74-A8ECC573C5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19935,7 +19778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19954,7 +19797,7 @@
         <v>1.9615000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19973,7 +19816,7 @@
         <v>0.59400000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -19992,7 +19835,7 @@
         <v>0.13150000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -20011,7 +19854,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -20030,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -20060,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -20090,7 +19933,7 @@
         <v>1.044906495230941</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -20120,7 +19963,7 @@
         <v>1.1088018958517005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -20150,7 +19993,7 @@
         <v>0.9291336290934834</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -20180,7 +20023,7 @@
         <v>0.79934935279934594</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -20210,7 +20053,7 @@
         <v>0.88384656135249628</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -20240,7 +20083,7 @@
         <v>0.73400415214031833</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -20270,7 +20113,7 @@
         <v>0.73400415214031833</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -20300,7 +20143,7 @@
         <v>1.2483085905226414</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -20330,7 +20173,7 @@
         <v>1.3676151926884605</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -20360,7 +20203,7 @@
         <v>2.2072699806620637</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -20390,7 +20233,7 @@
         <v>2.2480113211997312</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -20423,20 +20266,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F91836-59BD-45C9-9F6C-CE1C372CA294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20462,7 +20310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -20481,7 +20329,7 @@
         <v>0.35849999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20500,7 +20348,7 @@
         <v>0.19749999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -20519,7 +20367,7 @@
         <v>0.10099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -20538,7 +20386,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -20557,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -20587,7 +20435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -20617,7 +20465,7 @@
         <v>0.91974741245374692</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -20647,7 +20495,7 @@
         <v>1.0668771562885428</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -20677,7 +20525,7 @@
         <v>1.0133754312577075</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -20707,7 +20555,7 @@
         <v>0.90637198119603801</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -20737,7 +20585,7 @@
         <v>1.0133754312577075</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -20767,7 +20615,7 @@
         <v>0.90637198119603801</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -20797,7 +20645,7 @@
         <v>0.90637198119603801</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -20827,7 +20675,7 @@
         <v>0.62548792478415216</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -20857,7 +20705,7 @@
         <v>0.53185990598019017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -20887,7 +20735,7 @@
         <v>9.0386341858830104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -20917,7 +20765,7 @@
         <v>9.5736514361913621</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -20950,20 +20798,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D6461D-00D9-4E7B-A680-94ED89E058B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20983,7 +20836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -20995,7 +20848,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21007,7 +20860,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -21019,7 +20872,7 @@
         <v>-3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -21031,7 +20884,7 @@
         <v>-0.10199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21043,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -21066,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21089,7 +20942,7 @@
         <v>1.289770951359158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -21112,7 +20965,7 @@
         <v>0.69413066245422217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -21135,7 +20988,7 @@
         <v>1.6761322198380342</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -21158,7 +21011,7 @@
         <v>1.7244273783978938</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -21181,7 +21034,7 @@
         <v>1.01609838618662</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -21204,7 +21057,7 @@
         <v>1.2253774066126784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -21227,7 +21080,7 @@
         <v>-0.9961998871408636</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -21250,7 +21103,7 @@
         <v>1.128787089492959</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21276,18 +21129,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C380B-C45F-4CC4-86C6-FBA2BD645A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -21295,7 +21153,7 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21315,7 +21173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21327,7 +21185,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21339,7 +21197,7 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -21351,7 +21209,7 @@
         <v>0.16099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -21363,7 +21221,7 @@
         <v>4.3999999999999984E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21375,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -21398,7 +21256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21421,7 +21279,7 @@
         <v>1.177077726769036</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -21444,7 +21302,7 @@
         <v>1.177077726769036</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -21467,7 +21325,7 @@
         <v>0.88616431850561972</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -21490,7 +21348,7 @@
         <v>0.7470318189013776</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -21513,7 +21371,7 @@
         <v>0.83557068228589493</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -21536,7 +21394,7 @@
         <v>0.78497704606617036</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -21559,7 +21417,7 @@
         <v>0.86086750039575721</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -21582,7 +21440,7 @@
         <v>1.0252968181098623</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21608,20 +21466,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF74E3D-8387-4269-A672-2E8060E4B781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21650,7 +21513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21669,7 +21532,7 @@
         <v>0.31950000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21688,7 +21551,7 @@
         <v>0.3214999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -21707,7 +21570,7 @@
         <v>0.29699999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -21726,7 +21589,7 @@
         <v>0.1964999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -21745,7 +21608,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>0</v>
       </c>
@@ -21764,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -21798,7 +21661,7 @@
         <v>99.110585000000015</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -21832,7 +21695,7 @@
         <v>69.708232999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -21866,7 +21729,7 @@
         <v>56.538429500000014</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -21900,7 +21763,7 @@
         <v>49.800390500000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -21934,7 +21797,7 @@
         <v>24.992155999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -21968,7 +21831,7 @@
         <v>19.479214999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -22002,7 +21865,7 @@
         <v>26.217253999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -22036,7 +21899,7 @@
         <v>26.217253999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -22070,7 +21933,7 @@
         <v>14.885097499999983</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -22104,7 +21967,7 @@
         <v>14.885097499999983</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -22127,7 +21990,7 @@
         <v>13.226089999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -22150,7 +22013,7 @@
         <v>17.101399999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -22173,7 +22036,7 @@
         <v>11.225929999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -22196,7 +22059,7 @@
         <v>17.60144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -22219,7 +22082,7 @@
         <v>14.726209999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -22242,7 +22105,7 @@
         <v>14.726209999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -22265,7 +22128,7 @@
         <v>12.100999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -22288,7 +22151,7 @@
         <v>18.101480000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -22311,7 +22174,7 @@
         <v>15.97631</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -22334,7 +22197,7 @@
         <v>18.101480000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -22357,7 +22220,7 @@
         <v>33.727730000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -22380,7 +22243,7 @@
         <v>12.100999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -22403,7 +22266,7 @@
         <v>5.2254499999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -22426,7 +22289,7 @@
         <v>7.3506199999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -22449,7 +22312,7 @@
         <v>11.475949999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -22472,7 +22335,7 @@
         <v>9.975830000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -22495,7 +22358,7 @@
         <v>6.1005199999999977</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -22518,7 +22381,7 @@
         <v>7.1006</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -22541,7 +22404,7 @@
         <v>8.2256900000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -22567,5 +22430,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>